--- a/Completed project.xlsx
+++ b/Completed project.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertkison/Desktop/Python/dublin_housing_price/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D982F9A-60AB-F543-931D-92AD7208F545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF130F58-C5ED-9C4D-9CB0-A1B085725F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Pivot table" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$F$1:$F$281</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="531">
   <si>
     <t>https://www.daft.ie/for-rent/apartment-31-sweepstakes-ballsbridge-dublin-4-ballsbridge-dublin-4/4089085</t>
   </si>
@@ -1621,13 +1622,22 @@
   </si>
   <si>
     <t>Average of Price per month</t>
+  </si>
+  <si>
+    <t>Min of Price per month</t>
+  </si>
+  <si>
+    <t>Max of Price per month</t>
+  </si>
+  <si>
+    <t>Prices to rent in Dublin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1647,13 +1657,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1683,7 +1706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1694,11 +1717,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1706,22 +1735,13 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1755,6 +1775,31 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average price to rent per month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2241,7 +2286,3035 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Completed project.xlsx]Pivot table!PivotTable3</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minimum price to rent per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot table'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot table'!$A$29:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Dublin 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dublin 17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dublin 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin 13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dublin 16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dublin 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dublin 18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dublin 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dublin 11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dublin 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dublin 6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dublin 1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Co. Dublin</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dublin 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dublin 9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dublin 24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dublin 22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Dublin 15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Dublin 8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dublin 7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Dublin 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot table'!$B$29:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4DDF-AD47-8485-1A55CBEC815D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="827805711"/>
+        <c:axId val="821743935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="827805711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821743935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="821743935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827805711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Completed project.xlsx]Pivot table!PivotTable4</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maximum price to rent per month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot table'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot table'!$A$55:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Dublin 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dublin 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Co. Dublin</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin 13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dublin 18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dublin 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dublin 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dublin 9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dublin 14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dublin 12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dublin 16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dublin 1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dublin 5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dublin 8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dublin 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dublin 10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dublin 7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Dublin 24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Dublin 22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dublin 11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Dublin 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot table'!$B$55:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8670</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB04-D74A-96AE-40A5DA93C75E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="826685647"/>
+        <c:axId val="844890223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="826685647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="844890223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="844890223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826685647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Completed project.xlsx]Pivot table!PivotTable2</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average price to rent per month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot table'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot table'!$A$2:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Dublin 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dublin 13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dublin 6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin 18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dublin 2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dublin 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dublin 14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dublin 10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Co. Dublin</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dublin 16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dublin 5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dublin 9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dublin 17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dublin 15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dublin 1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dublin 11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dublin 8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Dublin 24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Dublin 12</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dublin 7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Dublin 22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot table'!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4733.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4394.6896551724139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4119.5384615384619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3315.5625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2934.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2746.0392156862745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2538.8888888888887</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2496.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2255.294117647059</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2222.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010.625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003.1764705882354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1921.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1892.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5FD9-0048-8277-F97E99CA1474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="827805711"/>
+        <c:axId val="821743935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="827805711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821743935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="821743935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827805711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Completed project.xlsx]Pivot table!PivotTable3</c:name>
+    <c:fmtId val="5"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Minimum price to rent per</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot table'!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot table'!$A$29:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Dublin 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dublin 17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Dublin 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin 13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dublin 16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dublin 4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dublin 18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dublin 3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dublin 11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dublin 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dublin 6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dublin 1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Co. Dublin</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dublin 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dublin 9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dublin 24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dublin 22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Dublin 15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Dublin 8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dublin 7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Dublin 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot table'!$B$29:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD76-2349-896A-77D4636A21B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="827805711"/>
+        <c:axId val="821743935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="827805711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="821743935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="821743935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="827805711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Completed project.xlsx]Pivot table!PivotTable4</c:name>
+    <c:fmtId val="4"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Maximum price to rent per month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot table'!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot table'!$A$55:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>Dublin 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Dublin 6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Co. Dublin</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dublin 13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dublin 18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Dublin 2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Dublin 3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dublin 9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Dublin 14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dublin 12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dublin 16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dublin 1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dublin 5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Dublin 8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dublin 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Dublin 10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Dublin 7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Dublin 24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Dublin 22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Dublin 11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Dublin 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot table'!$B$55:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8670</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A294-904F-ADD7-394C5DAFED4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="826685647"/>
+        <c:axId val="844890223"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="826685647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="844890223"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="844890223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="826685647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2784,20 +5857,2032 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2817,6 +7902,197 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EC3F7B-A2C9-404E-BA5C-986A62174F73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0F1B97-7F57-1244-9157-FCE6C304AD25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5EECE6-493F-9642-8970-7F88ED934964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1034B01-798A-FB40-BD85-B296B2D0760A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F375ED-4EA0-B643-94BB-C13187593975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4949,7 +10225,857 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CFD6A5B-BCDB-5E44-903B-DA29836AB411}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{13513A02-08FE-184C-AF04-4618084CC3F0}" name="PivotTable4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A54:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="121">
+        <item x="43"/>
+        <item x="56"/>
+        <item x="23"/>
+        <item x="42"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="67"/>
+        <item x="87"/>
+        <item x="100"/>
+        <item x="116"/>
+        <item x="60"/>
+        <item x="107"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="12"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item x="72"/>
+        <item x="22"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="92"/>
+        <item x="27"/>
+        <item x="40"/>
+        <item x="46"/>
+        <item x="83"/>
+        <item x="88"/>
+        <item x="36"/>
+        <item x="105"/>
+        <item x="18"/>
+        <item x="37"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="96"/>
+        <item x="30"/>
+        <item x="71"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item x="65"/>
+        <item x="32"/>
+        <item x="104"/>
+        <item x="75"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="112"/>
+        <item x="54"/>
+        <item x="61"/>
+        <item x="39"/>
+        <item x="93"/>
+        <item x="8"/>
+        <item x="45"/>
+        <item x="73"/>
+        <item x="34"/>
+        <item x="108"/>
+        <item x="14"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="78"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="86"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="115"/>
+        <item x="110"/>
+        <item x="52"/>
+        <item x="101"/>
+        <item x="109"/>
+        <item x="74"/>
+        <item x="91"/>
+        <item x="1"/>
+        <item x="49"/>
+        <item x="106"/>
+        <item x="63"/>
+        <item x="44"/>
+        <item x="25"/>
+        <item x="77"/>
+        <item x="84"/>
+        <item x="64"/>
+        <item x="98"/>
+        <item x="29"/>
+        <item x="117"/>
+        <item x="59"/>
+        <item x="0"/>
+        <item x="76"/>
+        <item x="118"/>
+        <item x="90"/>
+        <item x="24"/>
+        <item x="99"/>
+        <item x="51"/>
+        <item x="95"/>
+        <item x="17"/>
+        <item x="94"/>
+        <item x="41"/>
+        <item x="5"/>
+        <item x="102"/>
+        <item x="15"/>
+        <item x="80"/>
+        <item x="89"/>
+        <item x="103"/>
+        <item x="81"/>
+        <item x="111"/>
+        <item x="113"/>
+        <item x="55"/>
+        <item x="79"/>
+        <item x="119"/>
+        <item x="114"/>
+        <item x="97"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0">
+      <items count="118">
+        <item x="43"/>
+        <item x="56"/>
+        <item x="23"/>
+        <item x="79"/>
+        <item x="116"/>
+        <item x="42"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="67"/>
+        <item x="87"/>
+        <item x="98"/>
+        <item x="113"/>
+        <item x="60"/>
+        <item x="105"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="12"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item x="72"/>
+        <item x="22"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="91"/>
+        <item x="27"/>
+        <item x="40"/>
+        <item x="46"/>
+        <item x="83"/>
+        <item x="88"/>
+        <item x="36"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="37"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="95"/>
+        <item x="30"/>
+        <item x="71"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item x="65"/>
+        <item x="32"/>
+        <item x="102"/>
+        <item x="75"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="110"/>
+        <item x="54"/>
+        <item x="61"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="8"/>
+        <item x="45"/>
+        <item x="73"/>
+        <item x="34"/>
+        <item x="106"/>
+        <item x="14"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="78"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="86"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="112"/>
+        <item x="108"/>
+        <item x="52"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="74"/>
+        <item x="90"/>
+        <item x="1"/>
+        <item x="49"/>
+        <item x="104"/>
+        <item x="63"/>
+        <item x="44"/>
+        <item x="25"/>
+        <item x="77"/>
+        <item x="84"/>
+        <item x="64"/>
+        <item x="96"/>
+        <item x="29"/>
+        <item x="114"/>
+        <item x="59"/>
+        <item x="0"/>
+        <item x="76"/>
+        <item x="115"/>
+        <item x="89"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="51"/>
+        <item x="94"/>
+        <item x="17"/>
+        <item x="93"/>
+        <item x="41"/>
+        <item x="5"/>
+        <item x="100"/>
+        <item x="15"/>
+        <item x="80"/>
+        <item x="55"/>
+        <item x="101"/>
+        <item x="81"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="22">
+        <item x="1"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Max of Price per month" fld="2" subtotal="max" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E10D350E-CDD9-F744-AE1D-9B7D408B93FA}" name="PivotTable3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A28:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="121">
+        <item x="43"/>
+        <item x="56"/>
+        <item x="23"/>
+        <item x="42"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="67"/>
+        <item x="87"/>
+        <item x="100"/>
+        <item x="116"/>
+        <item x="60"/>
+        <item x="107"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="12"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item x="72"/>
+        <item x="22"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="92"/>
+        <item x="27"/>
+        <item x="40"/>
+        <item x="46"/>
+        <item x="83"/>
+        <item x="88"/>
+        <item x="36"/>
+        <item x="105"/>
+        <item x="18"/>
+        <item x="37"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="96"/>
+        <item x="30"/>
+        <item x="71"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item x="65"/>
+        <item x="32"/>
+        <item x="104"/>
+        <item x="75"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="112"/>
+        <item x="54"/>
+        <item x="61"/>
+        <item x="39"/>
+        <item x="93"/>
+        <item x="8"/>
+        <item x="45"/>
+        <item x="73"/>
+        <item x="34"/>
+        <item x="108"/>
+        <item x="14"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="78"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="86"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="115"/>
+        <item x="110"/>
+        <item x="52"/>
+        <item x="101"/>
+        <item x="109"/>
+        <item x="74"/>
+        <item x="91"/>
+        <item x="1"/>
+        <item x="49"/>
+        <item x="106"/>
+        <item x="63"/>
+        <item x="44"/>
+        <item x="25"/>
+        <item x="77"/>
+        <item x="84"/>
+        <item x="64"/>
+        <item x="98"/>
+        <item x="29"/>
+        <item x="117"/>
+        <item x="59"/>
+        <item x="0"/>
+        <item x="76"/>
+        <item x="118"/>
+        <item x="90"/>
+        <item x="24"/>
+        <item x="99"/>
+        <item x="51"/>
+        <item x="95"/>
+        <item x="17"/>
+        <item x="94"/>
+        <item x="41"/>
+        <item x="5"/>
+        <item x="102"/>
+        <item x="15"/>
+        <item x="80"/>
+        <item x="89"/>
+        <item x="103"/>
+        <item x="81"/>
+        <item x="111"/>
+        <item x="113"/>
+        <item x="55"/>
+        <item x="79"/>
+        <item x="119"/>
+        <item x="114"/>
+        <item x="97"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="1" showAll="0">
+      <items count="118">
+        <item x="43"/>
+        <item x="56"/>
+        <item x="23"/>
+        <item x="79"/>
+        <item x="116"/>
+        <item x="42"/>
+        <item x="85"/>
+        <item x="70"/>
+        <item x="67"/>
+        <item x="87"/>
+        <item x="98"/>
+        <item x="113"/>
+        <item x="60"/>
+        <item x="105"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="12"/>
+        <item x="62"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item x="72"/>
+        <item x="22"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="91"/>
+        <item x="27"/>
+        <item x="40"/>
+        <item x="46"/>
+        <item x="83"/>
+        <item x="88"/>
+        <item x="36"/>
+        <item x="103"/>
+        <item x="18"/>
+        <item x="37"/>
+        <item x="66"/>
+        <item x="11"/>
+        <item x="31"/>
+        <item x="20"/>
+        <item x="82"/>
+        <item x="26"/>
+        <item x="95"/>
+        <item x="30"/>
+        <item x="71"/>
+        <item x="68"/>
+        <item x="2"/>
+        <item x="65"/>
+        <item x="32"/>
+        <item x="102"/>
+        <item x="75"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="110"/>
+        <item x="54"/>
+        <item x="61"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="8"/>
+        <item x="45"/>
+        <item x="73"/>
+        <item x="34"/>
+        <item x="106"/>
+        <item x="14"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="48"/>
+        <item x="78"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="86"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="112"/>
+        <item x="108"/>
+        <item x="52"/>
+        <item x="99"/>
+        <item x="107"/>
+        <item x="74"/>
+        <item x="90"/>
+        <item x="1"/>
+        <item x="49"/>
+        <item x="104"/>
+        <item x="63"/>
+        <item x="44"/>
+        <item x="25"/>
+        <item x="77"/>
+        <item x="84"/>
+        <item x="64"/>
+        <item x="96"/>
+        <item x="29"/>
+        <item x="114"/>
+        <item x="59"/>
+        <item x="0"/>
+        <item x="76"/>
+        <item x="115"/>
+        <item x="89"/>
+        <item x="24"/>
+        <item x="97"/>
+        <item x="51"/>
+        <item x="94"/>
+        <item x="17"/>
+        <item x="93"/>
+        <item x="41"/>
+        <item x="5"/>
+        <item x="100"/>
+        <item x="15"/>
+        <item x="80"/>
+        <item x="55"/>
+        <item x="101"/>
+        <item x="81"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="22">
+        <item x="1"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="8"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Min of Price per month" fld="2" subtotal="min" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CFD6A5B-BCDB-5E44-903B-DA29836AB411}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -5315,7 +11441,7 @@
     <dataField name="Average of Price per month" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
@@ -5323,8 +11449,17 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5631,10 +11766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F262"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10883,101 +17018,6 @@
         <v>516</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D263" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D264" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D265" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D266" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D267" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D268" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D269" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D270" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D271" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D272" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D273" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D274" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D275" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D276" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D277" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D278" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D279" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D280" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D281" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="F1:F281" xr:uid="{5E60C019-9082-954F-B818-841289A074EB}"/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10987,10 +17027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDB505F-097C-AC4C-A1CF-835CB5A80D45}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11183,8 +17223,535 @@
         <v>3269.0574712643679</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B43" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B46" s="3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B47" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B48" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B50" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B54" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B55" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B56" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B57" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B58" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B59" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B60" s="3">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B61" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B76" s="2">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF2A5F-A861-D044-8B83-33075DE49054}">
+  <dimension ref="B1:N9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="14" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="2:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>